--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/15/seed1/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.75559999999998</v>
+        <v>-21.05549999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.77200000000002</v>
+        <v>-22.71810000000001</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.09389999999997</v>
+        <v>-20.21649999999997</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.91280000000001</v>
+        <v>-21.9523</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.09680000000001</v>
+        <v>-19.92889999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.9429</v>
+        <v>-21.92770000000001</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.26019999999997</v>
+        <v>-21.29709999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.1805</v>
+        <v>-21.1996</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.2936</v>
+        <v>-20.3163</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.84820000000001</v>
+        <v>-21.7836</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.6684</v>
+        <v>-21.61679999999999</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.205</v>
+        <v>-22.18260000000001</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.70450000000002</v>
+        <v>-22.68830000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.05930000000001</v>
+        <v>-22.13810000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.01410000000001</v>
+        <v>-22.09550000000001</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.44089999999999</v>
+        <v>-21.4546</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.27259999999999</v>
+        <v>-20.26939999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.46219999999997</v>
+        <v>-21.64319999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.61200000000001</v>
+        <v>-21.60629999999999</v>
       </c>
       <c r="B92" t="n">
         <v>4.82</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.04120000000001</v>
+        <v>-22.08800000000002</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
